--- a/bot1/Employee.xlsx
+++ b/bot1/Employee.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Code\pythonCode\BOT\bot1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC3533B-4FCC-4951-9431-A8884633A841}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002ED307-22A1-4000-AF88-35FF7BED9981}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1752" yWindow="972" windowWidth="16536" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -195,7 +195,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -234,7 +234,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -244,7 +244,22 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -253,7 +268,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -262,9 +277,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -592,194 +616,194 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="6">
         <v>1234567890</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="6">
         <v>560212</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="6">
         <v>6</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="6">
         <v>8</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="6">
         <v>9912345688</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="6">
         <v>400076</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="6">
         <v>4</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="6">
         <v>8</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
         <v>9912123456</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="4">
         <v>390016</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="4">
         <v>7</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="4">
         <v>5</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="4">
         <v>9912123789</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="4">
         <v>382330</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="4">
         <v>6</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="4">
         <v>5</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="4">
         <v>9976123789</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="4">
         <v>400611</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="4">
         <v>6</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="4">
         <v>4</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="4">
         <v>9836267890</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="4">
         <v>574141</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="4">
         <v>6</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="4">
         <v>7</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="4" t="s">
         <v>15</v>
       </c>
     </row>

--- a/bot1/Employee.xlsx
+++ b/bot1/Employee.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Code\pythonCode\BOT\bot1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002ED307-22A1-4000-AF88-35FF7BED9981}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CEB76E4-B55F-453A-97FE-0CBEC6E21829}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1752" yWindow="972" windowWidth="16536" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="16536" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -815,21 +815,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FDD7F7A7EF585448B48D0C2488F47AD2" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e62af096ae1152c7f2d4b19044f47919">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6833666c-886a-42d0-bc9c-83af8f222559" xmlns:ns3="44667592-b266-45fd-90e3-35518ad38058" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2036a45b39b0dbd67eb05c59e0ba65a7" ns2:_="" ns3:_="">
     <xsd:import namespace="6833666c-886a-42d0-bc9c-83af8f222559"/>
@@ -1046,8 +1031,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05E92165-207E-483E-AA74-6FCCB05AD35D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AEE22A65-E16A-4787-9CEE-75230F2217BA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1059,7 +1059,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AEE22A65-E16A-4787-9CEE-75230F2217BA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05E92165-207E-483E-AA74-6FCCB05AD35D}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/bot1/Employee.xlsx
+++ b/bot1/Employee.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Code\pythonCode\BOT\bot1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CEB76E4-B55F-453A-97FE-0CBEC6E21829}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399AFDD4-B18D-4E3F-92D5-63A18ACDCE1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="384" yWindow="384" windowWidth="16536" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,129 +53,121 @@
   </si>
   <si>
     <t>Tanmay</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Patil</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tanmaypatil@xyz.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Bangalore</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Karnataka</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>N</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Rahul</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Dev</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>rahuldev@xyz.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Mumbai</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Maharashtra</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Jai</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Patel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>jaipatel@xyz.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NY</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>New York</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Y</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Mohan</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>mohandev@xyz.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Bharat</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Bhushan</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>bharatbhushan@xyz.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Navi Mumbai</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Ram</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Singh</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ramsingh@xyz.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Mangalore</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -264,11 +256,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -282,19 +273,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -570,7 +551,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -615,67 +596,67 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="4">
         <v>1234567890</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="4">
         <v>560212</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="4">
         <v>6</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="4">
         <v>8</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="4">
         <v>9912345688</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="4">
         <v>400076</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="4">
         <v>4</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="4">
         <v>8</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -808,13 +789,19 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FDD7F7A7EF585448B48D0C2488F47AD2" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e62af096ae1152c7f2d4b19044f47919">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6833666c-886a-42d0-bc9c-83af8f222559" xmlns:ns3="44667592-b266-45fd-90e3-35518ad38058" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2036a45b39b0dbd67eb05c59e0ba65a7" ns2:_="" ns3:_="">
     <xsd:import namespace="6833666c-886a-42d0-bc9c-83af8f222559"/>
@@ -1031,12 +1018,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1047,13 +1028,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AEE22A65-E16A-4787-9CEE-75230F2217BA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC01BCC1-DC08-41BE-967D-D00B8C4FD07B}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC01BCC1-DC08-41BE-967D-D00B8C4FD07B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AEE22A65-E16A-4787-9CEE-75230F2217BA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/bot1/Employee.xlsx
+++ b/bot1/Employee.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Code\pythonCode\BOT\bot1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399AFDD4-B18D-4E3F-92D5-63A18ACDCE1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7EE299-B4D6-484A-A057-D7E4BC20D63F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="16536" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="16536" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,121 +53,102 @@
   </si>
   <si>
     <t>Tanmay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Patil</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tanmaypatil@xyz.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Bangalore</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Karnataka</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Rahul</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Dev</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>rahuldev@xyz.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Mumbai</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Maharashtra</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Jai</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Patel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>jaipatel@xyz.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>New York</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Mohan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>mohandev@xyz.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Bharat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Bhushan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>bharatbhushan@xyz.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Navi Mumbai</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Ram</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Singh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ramsingh@xyz.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Mangalore</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -187,7 +168,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -236,6 +217,36 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -256,10 +267,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -268,14 +280,30 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -551,20 +579,24 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -606,7 +638,7 @@
       <c r="C2" s="4">
         <v>1234567890</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -638,7 +670,7 @@
       <c r="C3" s="4">
         <v>9912345688</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -661,147 +693,141 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="7">
         <v>9912123456</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="7">
         <v>390016</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="7">
         <v>7</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="7">
         <v>5</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="7">
         <v>9912123789</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="7">
         <v>382330</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="7">
         <v>6</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="7">
         <v>5</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="7">
         <v>9976123789</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="7">
         <v>400611</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="7">
         <v>6</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="7">
         <v>4</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="9">
         <v>9836267890</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="9">
         <v>574141</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="9">
         <v>6</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="9">
         <v>7</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="9" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FDD7F7A7EF585448B48D0C2488F47AD2" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e62af096ae1152c7f2d4b19044f47919">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6833666c-886a-42d0-bc9c-83af8f222559" xmlns:ns3="44667592-b266-45fd-90e3-35518ad38058" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2036a45b39b0dbd67eb05c59e0ba65a7" ns2:_="" ns3:_="">
     <xsd:import namespace="6833666c-886a-42d0-bc9c-83af8f222559"/>
@@ -1018,6 +1044,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1028,13 +1060,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC01BCC1-DC08-41BE-967D-D00B8C4FD07B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AEE22A65-E16A-4787-9CEE-75230F2217BA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AEE22A65-E16A-4787-9CEE-75230F2217BA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC01BCC1-DC08-41BE-967D-D00B8C4FD07B}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
